--- a/Data/CoverageOfApplicationsWithTestData.xlsx
+++ b/Data/CoverageOfApplicationsWithTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA39E1FD-795E-4D2C-8E2B-C3FE32EF8FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5E5C4-C6AA-4AB5-B970-1B920D6262E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>A1</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Testing targets</t>
+  </si>
+  <si>
+    <t>AllUses</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:N51"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
